--- a/01-Excel/3/Activities/04-Ins_ScatterPlot/Solved/ScatterPlot.xlsx
+++ b/01-Excel/3/Activities/04-Ins_ScatterPlot/Solved/ScatterPlot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradyrothrock/Trilogy/Curriculum Development/Pilots/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/3/Activities/04-Ins_ScatterPlot/Solved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johntaylor/2021_2022_CWRU_BootCamp/DataViz-Lesson-Plans_Active/01-Lesson-Plans/01-Excel/3/Activities/04-Ins_ScatterPlot/Solved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D47F8F-A4D9-2643-AA13-30DFAD2A722E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE6EF51-3AD0-A741-A083-BA56BE72B74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="14380" windowHeight="14080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29700" yWindow="1300" windowWidth="27820" windowHeight="16160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Normal Trend" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2872,16 +2875,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>574675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2913,16 +2916,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2954,16 +2957,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3291,7 +3294,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B10"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3526,7 +3529,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
